--- a/cluster_delhi_ncr.xlsx
+++ b/cluster_delhi_ncr.xlsx
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>1111</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>510</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>381</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>994</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>636</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>976</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>1065</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>1180</v>
+        <v>1406</v>
       </c>
     </row>
   </sheetData>
